--- a/biology/Mycologie/Infundibulicybe_gibba/Infundibulicybe_gibba.xlsx
+++ b/biology/Mycologie/Infundibulicybe_gibba/Infundibulicybe_gibba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Infundibulicybe gibba (autrefois Clitocybe gibba), le Clitocybe en entonnoir  ou Coupe bocagère, est une espèce de champignons basidiomycètes en forme d'entonnoir et lamellé du genre Infundibulicybe (genre proche du clade Marasmioïde et probablement MRCA[1] du clade Tricholomatoïde[2]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Infundibulicybe gibba (autrefois Clitocybe gibba), le Clitocybe en entonnoir  ou Coupe bocagère, est une espèce de champignons basidiomycètes en forme d'entonnoir et lamellé du genre Infundibulicybe (genre proche du clade Marasmioïde et probablement MRCA du clade Tricholomatoïde).
 </t>
         </is>
       </c>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial accepté
-Infundibulicybe[3] gibba  (Pers.) Harmaja 2003[4]
-Synonymes
- Agaricus gibbus Pers. 1801 (synonyme)
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Infundibulicybe gibba  (Pers.) Harmaja 2003
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Infundibulicybe_gibba</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Infundibulicybe_gibba</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Agaricus gibbus Pers. 1801 (synonyme)
  Agaricus gibbus membranaceus (Vahl) Fr. 1828 (synonyme)
  Agaricus infundibuliformis (synonyme)
  Agaricus infundibuliformis var. membranaceus (Vahl) Fr. 1838 (synonyme)
@@ -527,31 +579,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Infundibulicybe_gibba</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Infundibulicybe_gibba</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore : chapeau de 4 à 10 cm, grégaire, convexe devenant rapidement plat à marge enroulée puis infundibuliforme, le plus souvent orné au centre d'un petit mamelon, à marge lisse, hygrophane,
 Cuticule : cuticule mate ou finement veloutée, de couleur crème à beige ochracé ou beige à brun clair
@@ -563,37 +617,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Infundibulicybe_gibba</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Infundibulicybe_gibba</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pousse sur le sol dans les forêts caducifoliées jusqu'aux premières gelées.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -615,12 +638,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comestibilié</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S'il est considéré comme un comestible moyen, de saveur douce, il est toutefois préférable d'en rejeter le pied qui est trop fibreux.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse sur le sol dans les forêts caducifoliées jusqu'aux premières gelées.
 </t>
         </is>
       </c>
@@ -646,10 +671,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Comestibilié</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S'il est considéré comme un comestible moyen, de saveur douce, il est toutefois préférable d'en rejeter le pied qui est trop fibreux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Infundibulicybe_gibba</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Infundibulicybe_gibba</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe.
 </t>
